--- a/usecase_energy/data/raw/Potential objects.xlsx
+++ b/usecase_energy/data/raw/Potential objects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OP3267\Desktop\DKSR\Data plyn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://datenkompetenzzentrum.sharepoint.com/teams/DKSR-extern/Freigegebene Dokumente/City Mission 2024_Prague/Use Case 1 Evaluation of heating effectiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{08753B7C-3B96-451F-8509-DE9972620E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09A1A2EC-5E32-4FB5-8D0B-398730294A2B}"/>
+  <xr:revisionPtr revIDLastSave="373" documentId="13_ncr:1_{08753B7C-3B96-451F-8509-DE9972620E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55AB928-410B-49FB-B480-DFD9BD0707ED}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AE344E2D-CB4B-46DA-ADB2-623B889C553A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AE344E2D-CB4B-46DA-ADB2-623B889C553A}"/>
   </bookViews>
   <sheets>
     <sheet name="Buildings data" sheetId="4" r:id="rId1"/>
@@ -40,11 +40,13 @@
   <authors>
     <author>tc={837708F6-A41D-450D-857A-479B04131E6F}</author>
     <author>tc={E593DFE9-6472-4229-BBE5-1AACECC545C8}</author>
+    <author>tc={50D199A9-FAC9-439F-92DE-1A3D354BD44D}</author>
     <author>tc={CA1C9BD4-3E9A-46E2-8513-D89A6FF2C39D}</author>
     <author>tc={0E0670E4-3F07-4744-A46F-C18679520CA8}</author>
+    <author>tc={83D1CA55-5DE8-4DF4-887E-E81FF8B042EE}</author>
   </authors>
   <commentList>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{837708F6-A41D-450D-857A-479B04131E6F}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{837708F6-A41D-450D-857A-479B04131E6F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -52,7 +54,7 @@
     business component</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1" shapeId="0" xr:uid="{E593DFE9-6472-4229-BBE5-1AACECC545C8}">
+    <comment ref="S1" authorId="1" shapeId="0" xr:uid="{E593DFE9-6472-4229-BBE5-1AACECC545C8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -60,7 +62,15 @@
     Primary energy from non-renewable sources</t>
       </text>
     </comment>
-    <comment ref="O14" authorId="2" shapeId="0" xr:uid="{CA1C9BD4-3E9A-46E2-8513-D89A6FF2C39D}">
+    <comment ref="D10" authorId="2" shapeId="0" xr:uid="{50D199A9-FAC9-439F-92DE-1A3D354BD44D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    TF = Heat meter with 2 readings per day</t>
+      </text>
+    </comment>
+    <comment ref="P14" authorId="3" shapeId="0" xr:uid="{CA1C9BD4-3E9A-46E2-8513-D89A6FF2C39D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -68,7 +78,7 @@
     Kč/GJ</t>
       </text>
     </comment>
-    <comment ref="Q14" authorId="3" shapeId="0" xr:uid="{0E0670E4-3F07-4744-A46F-C18679520CA8}">
+    <comment ref="S14" authorId="4" shapeId="0" xr:uid="{0E0670E4-3F07-4744-A46F-C18679520CA8}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,12 +86,20 @@
     D</t>
       </text>
     </comment>
+    <comment ref="AD17" authorId="5" shapeId="0" xr:uid="{83D1CA55-5DE8-4DF4-887E-E81FF8B042EE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    , Heat insulation 2022</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="150">
   <si>
     <t>Building</t>
   </si>
@@ -119,6 +137,9 @@
     <t>Heating output (kW)</t>
   </si>
   <si>
+    <t>Heating output - numeric</t>
+  </si>
+  <si>
     <t>Energy consumption (m3, GJ)</t>
   </si>
   <si>
@@ -131,12 +152,33 @@
     <t>Energy reference surface (m2)</t>
   </si>
   <si>
+    <t>Volume (m3)</t>
+  </si>
+  <si>
     <t>EPC</t>
   </si>
   <si>
+    <t>EPC - numeric</t>
+  </si>
+  <si>
     <t>Number of floors</t>
   </si>
   <si>
+    <t>Floors above ground</t>
+  </si>
+  <si>
+    <t>Floors below ground</t>
+  </si>
+  <si>
+    <t>Number of classrooms</t>
+  </si>
+  <si>
+    <t>Number of gyms</t>
+  </si>
+  <si>
+    <t>Number of kitchen</t>
+  </si>
+  <si>
     <t>Building height (m)</t>
   </si>
   <si>
@@ -149,6 +191,12 @@
     <t>Heat insulation</t>
   </si>
   <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Windows area (m2)</t>
+  </si>
+  <si>
     <t>ZŠ Brigádníků</t>
   </si>
   <si>
@@ -210,6 +258,9 @@
   </si>
   <si>
     <t>measurement app</t>
+  </si>
+  <si>
+    <t>The vertical windows are made of plastic. The vertical windows have argon-filled insulated double glazing.</t>
   </si>
   <si>
     <t>ZŠ Gutova</t>
@@ -345,33 +396,39 @@
     <t>Donovalská 2222, Praha 4</t>
   </si>
   <si>
+    <t>Social (Elderly home)</t>
+  </si>
+  <si>
+    <t>2.9/PF1</t>
+  </si>
+  <si>
+    <t>1404,6kW</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>C - 224,7 kWh/m2/year</t>
+  </si>
+  <si>
+    <t>5 nadzemních a 1 podzemní podlaží</t>
+  </si>
+  <si>
+    <t>reinforced concrete 200 mm + insulation 100 mm</t>
+  </si>
+  <si>
+    <t>The vertical windows are 54.4% plastic, 43.5% wooden, and 2.1% made of glass blocks. The vertical windows are 54.4% with argon-filled insulated double glazing, and 45.6% with double glazing (glass blocks)</t>
+  </si>
+  <si>
+    <t>DS Malešice</t>
+  </si>
+  <si>
+    <t>Rektorská 577, Praha 6</t>
+  </si>
+  <si>
     <t>Social</t>
   </si>
   <si>
-    <t>2.9/PF1</t>
-  </si>
-  <si>
-    <t>1404,6kW</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>C - 224,7 kWh/m2/year</t>
-  </si>
-  <si>
-    <t>5 nadzemních a 1 podzemní podlaží</t>
-  </si>
-  <si>
-    <t>reinforced concrete 200 mm + insulation 100 mm</t>
-  </si>
-  <si>
-    <t>DS Malešice</t>
-  </si>
-  <si>
-    <t>Rektorská 577, Praha 6</t>
-  </si>
-  <si>
     <t>2.8/PF1</t>
   </si>
   <si>
@@ -381,9 +438,6 @@
     <t>3 different buildings</t>
   </si>
   <si>
-    <t>1980, 1981 a 2009</t>
-  </si>
-  <si>
     <t>DS Elišky Purkyňové</t>
   </si>
   <si>
@@ -435,6 +489,9 @@
     <t>5 nadzemních a 3 podzemní podlaží</t>
   </si>
   <si>
+    <t>historical building, repased windows, new sealing</t>
+  </si>
+  <si>
     <t>Gymnázium Na Vítězné pláni</t>
   </si>
   <si>
@@ -456,12 +513,15 @@
     <t>C - 96,1 kWh/m2/year</t>
   </si>
   <si>
-    <t>podsklepen s částečně  vytápěným suterénem a s čtyřmi vytápěnými nadzemními podlažími.</t>
+    <t>podsklepen s částečně  vytápěným suterénem a s čtyřmi vytápěnými nadzemními podlažími. 40 classrooms, 2 gyms</t>
   </si>
   <si>
     <t>solid fired brick 450mm</t>
   </si>
   <si>
+    <t>New windows - 2017, The vertical windows are made of plastic. The vertical windows have argon-filled insulated double glazing.</t>
+  </si>
+  <si>
     <t>Gymnázium a Hudební škola hlavního města Prahy</t>
   </si>
   <si>
@@ -487,6 +547,9 @@
   </si>
   <si>
     <t>solid fired brick 680mm</t>
+  </si>
+  <si>
+    <t>The vertical windows are wooden. The vertical windows consist of 3.7% with argon-filled insulated double glazing, 65.2% with double glazing, and 31.0% with dual glazing.</t>
   </si>
 </sst>
 </file>
@@ -613,7 +676,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -649,15 +712,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,9 +839,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -767,16 +854,34 @@
     <xf numFmtId="3" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Čárka 2" xfId="2" xr:uid="{16850ABF-7969-440E-9B4B-A557501A12EB}"/>
-    <cellStyle name="Hyperlink" xfId="4" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Hypertextový odkaz" xfId="3" builtinId="8"/>
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normální 7" xfId="1" xr:uid="{D8F32CA2-A72F-40A9-A4C5-72E292FC2AFB}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -794,6 +899,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="krnak.stanislav@operatorict.cz" id="{14243950-8102-4293-B1D4-D898B0137DE5}" userId="S::urn:spo:guest#krnak.stanislav@operatorict.cz::" providerId="AD"/>
+  <person displayName="Justin Zarb" id="{4300C30E-D3AC-42FD-BE33-7B69DEA29A36}" userId="S::justin.zarb@dksr.city::de47cce5-9e95-4c64-b20c-4e4ebb1c9e08" providerId="AD"/>
 </personList>
 </file>
 
@@ -1114,33 +1220,39 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O1" dT="2024-09-12T13:01:12.37" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{837708F6-A41D-450D-857A-479B04131E6F}">
+  <threadedComment ref="P1" dT="2024-09-12T13:01:12.37" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{837708F6-A41D-450D-857A-479B04131E6F}">
     <text>business component</text>
   </threadedComment>
-  <threadedComment ref="Q1" dT="2024-09-12T14:05:18.19" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{E593DFE9-6472-4229-BBE5-1AACECC545C8}">
+  <threadedComment ref="S1" dT="2024-09-12T14:05:18.19" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{E593DFE9-6472-4229-BBE5-1AACECC545C8}">
     <text>Primary energy from non-renewable sources</text>
   </threadedComment>
-  <threadedComment ref="O14" dT="2024-09-12T14:39:54.50" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{CA1C9BD4-3E9A-46E2-8513-D89A6FF2C39D}">
+  <threadedComment ref="D10" dT="2024-09-16T09:17:08.83" personId="{4300C30E-D3AC-42FD-BE33-7B69DEA29A36}" id="{50D199A9-FAC9-439F-92DE-1A3D354BD44D}">
+    <text>TF = Heat meter with 2 readings per day</text>
+  </threadedComment>
+  <threadedComment ref="P14" dT="2024-09-12T14:39:54.50" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{CA1C9BD4-3E9A-46E2-8513-D89A6FF2C39D}">
     <text>Kč/GJ</text>
   </threadedComment>
-  <threadedComment ref="Q14" dT="2024-09-12T14:41:50.19" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{0E0670E4-3F07-4744-A46F-C18679520CA8}">
+  <threadedComment ref="S14" dT="2024-09-12T14:41:50.19" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{0E0670E4-3F07-4744-A46F-C18679520CA8}">
     <text>D</text>
+  </threadedComment>
+  <threadedComment ref="AD17" dT="2024-09-16T10:16:12.50" personId="{14243950-8102-4293-B1D4-D898B0137DE5}" id="{83D1CA55-5DE8-4DF4-887E-E81FF8B042EE}">
+    <text>, Heat insulation 2022</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0FDB087-72D8-4EB0-9773-B783ACE2D328}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:AF20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B18" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
       <selection pane="bottomLeft"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
@@ -1154,19 +1266,25 @@
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="22.28515625" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.5703125" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="22.28515625" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" customWidth="1"/>
+    <col min="21" max="21" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="20.42578125" customWidth="1"/>
+    <col min="23" max="26" width="19.7109375" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="26.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" customWidth="1"/>
+    <col min="31" max="31" width="33.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="43.5">
+    <row r="1" spans="1:32" ht="43.5">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1227,1004 +1345,1359 @@
       <c r="T1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="41" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:32">
       <c r="A2" s="22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I2" s="20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
-      <c r="M2" s="16"/>
+      <c r="M2" s="43"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="5"/>
       <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
     </row>
-    <row r="3" spans="1:22" ht="43.5">
+    <row r="3" spans="1:32" ht="43.5">
       <c r="A3" s="23" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="33"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q3" s="32">
+        <v>7452</v>
+      </c>
+      <c r="R3" s="32"/>
+      <c r="S3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3" s="5">
+        <v>243.9</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="V3" s="7">
+        <v>2</v>
+      </c>
+      <c r="W3" s="7">
+        <v>1</v>
+      </c>
+      <c r="X3" s="7">
+        <v>25</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1960</v>
+      </c>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE3" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="42"/>
+    </row>
+    <row r="4" spans="1:32" ht="43.5">
+      <c r="A4" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="34"/>
-      <c r="M3" s="31" t="s">
+      <c r="F4" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="37">
-        <v>7452</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" s="5">
-        <v>1960</v>
-      </c>
-      <c r="U3" s="34"/>
-      <c r="V3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="43.5">
-      <c r="A4" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="34"/>
-      <c r="M4" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q4" s="35">
+        <v>6600</v>
+      </c>
+      <c r="R4" s="35"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V4" s="7">
+        <v>5</v>
+      </c>
+      <c r="W4" s="7">
+        <v>1</v>
+      </c>
+      <c r="X4" s="7">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1970</v>
+      </c>
+      <c r="AC4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P4" s="36"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" s="5">
-        <v>1970</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="A5" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="40"/>
+      <c r="AF5" s="40"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="36"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="34"/>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="A6" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="33"/>
+      <c r="AC6" s="33"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+    </row>
+    <row r="7" spans="1:32" ht="43.5">
+      <c r="A7" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N6" s="34"/>
-      <c r="O6" s="34"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-    </row>
-    <row r="7" spans="1:22" ht="43.5">
-      <c r="A7" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="33"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q7" s="35">
+        <v>6072</v>
+      </c>
+      <c r="R7" s="35"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="V7" s="7">
+        <v>3</v>
+      </c>
+      <c r="W7" s="7">
+        <v>1</v>
+      </c>
+      <c r="X7" s="7">
+        <v>31</v>
+      </c>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1915</v>
+      </c>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE7" s="40"/>
+      <c r="AF7" s="40"/>
+    </row>
+    <row r="8" spans="1:32" ht="43.5">
+      <c r="A8" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O7" s="5">
-        <v>1500</v>
-      </c>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T7" s="5">
-        <v>1915</v>
-      </c>
-      <c r="U7" s="34"/>
-      <c r="V7" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" ht="43.5">
-      <c r="A8" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L8" s="34"/>
-      <c r="M8" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="33"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1500</v>
+      </c>
+      <c r="Q8" s="32">
+        <v>5789</v>
+      </c>
+      <c r="R8" s="32"/>
+      <c r="S8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="5">
+        <v>207.5</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="7">
+        <v>4</v>
+      </c>
+      <c r="W8" s="7">
+        <v>1</v>
+      </c>
+      <c r="X8" s="7">
+        <v>19</v>
+      </c>
+      <c r="Y8" s="7">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1930</v>
+      </c>
+      <c r="AC8" s="33"/>
+      <c r="AD8" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE8" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF8" s="42"/>
+    </row>
+    <row r="9" spans="1:32" ht="29.25">
+      <c r="A9" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="O8" s="5">
-        <v>1500</v>
-      </c>
-      <c r="P8" s="33">
-        <v>5789</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T8" s="5">
-        <v>1930</v>
-      </c>
-      <c r="U8" s="34"/>
-      <c r="V8" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" ht="30">
-      <c r="A9" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="J9" s="19"/>
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
-      <c r="M9" s="16"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="29" t="s">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="37"/>
+      <c r="AE9" s="40"/>
+      <c r="AF9" s="40"/>
+    </row>
+    <row r="10" spans="1:32" ht="43.5">
+      <c r="A10" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-    </row>
-    <row r="10" spans="1:22" ht="43.5">
-      <c r="A10" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="F10" s="3" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="L10" s="33"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="32">
+        <v>8810</v>
+      </c>
+      <c r="R10" s="32"/>
+      <c r="S10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="T10" s="5">
+        <v>105</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="V10" s="7">
+        <v>4</v>
+      </c>
+      <c r="W10" s="7">
+        <v>1</v>
+      </c>
+      <c r="X10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1970</v>
+      </c>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE10" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="31" t="s">
+      <c r="F11" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="P10" s="33">
-        <v>8810</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T10" s="5">
-        <v>1970</v>
-      </c>
-      <c r="U10" s="34"/>
-      <c r="V10" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="A11" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>27</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K11" s="19"/>
       <c r="L11" s="19"/>
-      <c r="M11" s="16"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="16"/>
       <c r="O11" s="16"/>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="5"/>
       <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="37"/>
+      <c r="AE11" s="40"/>
+      <c r="AF11" s="40"/>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:32">
       <c r="A12" s="23" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="29" t="s">
+        <v>47</v>
+      </c>
       <c r="O12" s="5"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="29" t="s">
-        <v>42</v>
-      </c>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="38"/>
+      <c r="AE12" s="40"/>
+      <c r="AF12" s="40"/>
     </row>
-    <row r="13" spans="1:22" ht="29.25">
+    <row r="13" spans="1:32" ht="87">
       <c r="A13" s="23" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="M13" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1404.6</v>
+      </c>
+      <c r="N13" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1534</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>11212</v>
+      </c>
+      <c r="R13" s="32">
+        <v>32948</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="T13" s="5">
+        <v>224.7</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="V13" s="5">
+        <v>5</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>1990</v>
+      </c>
+      <c r="AC13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF13" s="32">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="43.5">
+      <c r="A14" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N13" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O13" s="5">
-        <v>1534</v>
-      </c>
-      <c r="P13" s="33">
-        <v>11212</v>
-      </c>
-      <c r="Q13" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="S13" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="5">
-        <v>1990</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="V13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N14" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="5">
+        <v>110</v>
+      </c>
+      <c r="M14" s="5">
+        <v>2740</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="5">
         <v>706.6</v>
       </c>
-      <c r="P14" s="33">
+      <c r="Q14" s="32">
         <f>5879+2837+2041</f>
         <v>10757</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="R14" s="32">
+        <f>7228+19424+8126</f>
+        <v>34778</v>
+      </c>
+      <c r="S14" s="5">
         <f>206.4+272.7+313.7</f>
         <v>792.8</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="S14" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T14" s="5" t="s">
-        <v>99</v>
+      <c r="T14" s="5">
+        <v>792.8</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="V14" s="5" t="s">
-        <v>35</v>
+        <v>111</v>
+      </c>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1980</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF14" s="32">
+        <f>330+1180+585</f>
+        <v>2095</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="29.25">
+    <row r="15" spans="1:32" ht="43.5">
       <c r="A15" s="23" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="M15" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="M15" s="5">
+        <v>500</v>
+      </c>
+      <c r="N15" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1534</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>7301</v>
+      </c>
+      <c r="R15" s="32">
+        <v>24214</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T15" s="5">
+        <v>181.2</v>
+      </c>
+      <c r="U15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="V15" s="5">
+        <v>3</v>
+      </c>
+      <c r="W15" s="5">
+        <v>1</v>
+      </c>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>2012</v>
+      </c>
+      <c r="AC15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="AD15" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF15" s="32">
+        <v>1155.0999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="29.25">
+      <c r="A16" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>90</v>
-      </c>
-      <c r="O15" s="5">
-        <v>1534</v>
-      </c>
-      <c r="P15" s="33">
-        <v>7301</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="S15" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T15" s="5">
-        <v>2012</v>
-      </c>
-      <c r="U15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
-      <c r="A16" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="M16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="N16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="P16" s="5">
+        <v>1171</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>23115</v>
+      </c>
+      <c r="R16" s="32">
+        <v>104266</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="T16" s="5">
+        <v>278</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="V16" s="5">
+        <v>5</v>
+      </c>
+      <c r="W16" s="5">
+        <v>3</v>
+      </c>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1912</v>
+      </c>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE16" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF16" s="32">
+        <v>1804.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" ht="57.75">
+      <c r="A17" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N16" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="O16" s="5">
-        <v>1171</v>
-      </c>
-      <c r="P16" s="33">
-        <v>23115</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="S16" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" s="5">
-        <v>1912</v>
-      </c>
-      <c r="U16" s="35"/>
-      <c r="V16" s="34"/>
-    </row>
-    <row r="17" spans="1:22" ht="43.5">
-      <c r="A17" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="M17" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" s="5">
+        <v>430</v>
+      </c>
+      <c r="N17" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="P17" s="5">
+        <v>1534</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>6229</v>
+      </c>
+      <c r="R17" s="32">
+        <v>22289</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="T17" s="5">
+        <v>96.1</v>
+      </c>
+      <c r="U17" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="V17" s="23">
+        <v>4</v>
+      </c>
+      <c r="W17" s="23">
+        <v>1</v>
+      </c>
+      <c r="X17" s="23">
+        <v>40</v>
+      </c>
+      <c r="Y17" s="23">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="23"/>
+      <c r="AA17" s="29">
+        <v>18</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1961</v>
+      </c>
+      <c r="AC17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE17" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF17" s="32">
+        <v>1437.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" ht="72.75">
+      <c r="A18" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="N17" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="5">
-        <v>1534</v>
-      </c>
-      <c r="P17" s="33">
-        <v>6229</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="R17" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="S17" s="29">
-        <v>18</v>
-      </c>
-      <c r="T17" s="5">
-        <v>1961</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="V17" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="43.5">
-      <c r="A18" s="23" t="s">
-        <v>126</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O18" s="5">
+        <v>144</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1200</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="5">
         <v>1534</v>
       </c>
-      <c r="P18" s="33">
+      <c r="Q18" s="32">
         <v>10491</v>
       </c>
-      <c r="Q18" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="R18" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="S18" s="31">
+      <c r="R18" s="32">
+        <v>42316</v>
+      </c>
+      <c r="S18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="T18" s="5">
+        <v>200.6</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="V18" s="23">
+        <v>5</v>
+      </c>
+      <c r="W18" s="23">
+        <v>1</v>
+      </c>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23"/>
+      <c r="Z18" s="23"/>
+      <c r="AA18" s="29">
         <v>20</v>
       </c>
-      <c r="T18" s="5">
+      <c r="AB18" s="5">
         <v>1872</v>
       </c>
-      <c r="U18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="V18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="AC18" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD18" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE18" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AF18" s="32">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" ht="15" customHeight="1">
+      <c r="I20" s="36"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="S17" r:id="rId1" display="https://app.iprpraha.cz/apl/app/model3d/" xr:uid="{F9E4EB8A-B87D-4B8E-8099-2907EFD509F5}"/>
-    <hyperlink ref="S16" r:id="rId2" display="measure app" xr:uid="{1961DFC9-7E47-489C-9D88-598F5800AD07}"/>
-    <hyperlink ref="S3:S15" r:id="rId3" display="measure app" xr:uid="{0B248875-865F-4B79-9ADE-EA8A08988DDB}"/>
-    <hyperlink ref="S18" r:id="rId4" display="20" xr:uid="{CCC1572E-793A-4531-A442-6D80ABE71C9B}"/>
-    <hyperlink ref="N17" r:id="rId5" xr:uid="{C85A7CF6-876C-424E-A9DA-E3EDE69015EA}"/>
-    <hyperlink ref="N16" r:id="rId6" xr:uid="{E2E94C18-191E-48EA-9BAF-BCF58DB98533}"/>
-    <hyperlink ref="N15" r:id="rId7" xr:uid="{633B52C4-59C5-4E36-8ABB-9E68FFE5B91B}"/>
-    <hyperlink ref="N14" r:id="rId8" xr:uid="{E227DF7C-A0F6-4BBA-A296-7E3870A9FA24}"/>
-    <hyperlink ref="N13" r:id="rId9" xr:uid="{662AAC4B-434D-4633-A15B-9B1CF47A98A3}"/>
-    <hyperlink ref="M3" r:id="rId10" xr:uid="{02F961F4-B214-4F9C-BD9A-BC82A60E98B0}"/>
-    <hyperlink ref="M4" r:id="rId11" xr:uid="{92D640A1-2102-4593-973B-5AD452CF5B9D}"/>
-    <hyperlink ref="M5" r:id="rId12" xr:uid="{49A709C8-15AB-4F7D-A911-3AA5D963E1D6}"/>
-    <hyperlink ref="M6" r:id="rId13" xr:uid="{5472D9FE-36DF-40EE-BE59-D2A37FDE89C7}"/>
-    <hyperlink ref="M7" r:id="rId14" xr:uid="{A9EC9836-4075-47D0-AD2D-83B6F61AFCCC}"/>
-    <hyperlink ref="M8" r:id="rId15" xr:uid="{1AE766FA-D4A7-49E4-BFB0-E90F8FE5B739}"/>
-    <hyperlink ref="M10" r:id="rId16" xr:uid="{C1BCB665-6199-41D5-977B-A7DD7C93016B}"/>
-    <hyperlink ref="M12" r:id="rId17" xr:uid="{48E155FE-DDB1-4DD0-A012-45B9FF74C7B2}"/>
-    <hyperlink ref="M13" r:id="rId18" xr:uid="{DEF0C47A-29D2-40E3-A8F5-65CEA45B0E13}"/>
-    <hyperlink ref="M14" r:id="rId19" xr:uid="{98F5F485-1B02-4977-BEB3-6F452A5673FE}"/>
-    <hyperlink ref="M15" r:id="rId20" xr:uid="{3A76E2CE-5542-46A1-B919-DC40033C235D}"/>
-    <hyperlink ref="M16" r:id="rId21" xr:uid="{8CF028CD-AF38-4E65-854D-B5B37073088D}"/>
-    <hyperlink ref="M17" r:id="rId22" xr:uid="{4F52B149-5F7F-48FF-870C-666544FEC72E}"/>
-    <hyperlink ref="M18" r:id="rId23" xr:uid="{E2D69A3D-693D-46F9-B614-9EC3B752F555}"/>
+    <hyperlink ref="AA17" r:id="rId1" display="https://app.iprpraha.cz/apl/app/model3d/" xr:uid="{F9E4EB8A-B87D-4B8E-8099-2907EFD509F5}"/>
+    <hyperlink ref="AA16" r:id="rId2" display="measure app" xr:uid="{1961DFC9-7E47-489C-9D88-598F5800AD07}"/>
+    <hyperlink ref="AA3:AA15" r:id="rId3" display="measure app" xr:uid="{0B248875-865F-4B79-9ADE-EA8A08988DDB}"/>
+    <hyperlink ref="AA18" r:id="rId4" display="20" xr:uid="{CCC1572E-793A-4531-A442-6D80ABE71C9B}"/>
+    <hyperlink ref="O17" r:id="rId5" xr:uid="{C85A7CF6-876C-424E-A9DA-E3EDE69015EA}"/>
+    <hyperlink ref="O16" r:id="rId6" xr:uid="{E2E94C18-191E-48EA-9BAF-BCF58DB98533}"/>
+    <hyperlink ref="O15" r:id="rId7" xr:uid="{633B52C4-59C5-4E36-8ABB-9E68FFE5B91B}"/>
+    <hyperlink ref="O14" r:id="rId8" xr:uid="{E227DF7C-A0F6-4BBA-A296-7E3870A9FA24}"/>
+    <hyperlink ref="O13" r:id="rId9" xr:uid="{662AAC4B-434D-4633-A15B-9B1CF47A98A3}"/>
+    <hyperlink ref="N3" r:id="rId10" xr:uid="{02F961F4-B214-4F9C-BD9A-BC82A60E98B0}"/>
+    <hyperlink ref="N4" r:id="rId11" xr:uid="{92D640A1-2102-4593-973B-5AD452CF5B9D}"/>
+    <hyperlink ref="N5" r:id="rId12" xr:uid="{49A709C8-15AB-4F7D-A911-3AA5D963E1D6}"/>
+    <hyperlink ref="N6" r:id="rId13" xr:uid="{5472D9FE-36DF-40EE-BE59-D2A37FDE89C7}"/>
+    <hyperlink ref="N7" r:id="rId14" xr:uid="{A9EC9836-4075-47D0-AD2D-83B6F61AFCCC}"/>
+    <hyperlink ref="N8" r:id="rId15" xr:uid="{1AE766FA-D4A7-49E4-BFB0-E90F8FE5B739}"/>
+    <hyperlink ref="N10" r:id="rId16" xr:uid="{C1BCB665-6199-41D5-977B-A7DD7C93016B}"/>
+    <hyperlink ref="N12" r:id="rId17" xr:uid="{48E155FE-DDB1-4DD0-A012-45B9FF74C7B2}"/>
+    <hyperlink ref="N13" r:id="rId18" xr:uid="{DEF0C47A-29D2-40E3-A8F5-65CEA45B0E13}"/>
+    <hyperlink ref="N14" r:id="rId19" xr:uid="{98F5F485-1B02-4977-BEB3-6F452A5673FE}"/>
+    <hyperlink ref="N15" r:id="rId20" xr:uid="{3A76E2CE-5542-46A1-B919-DC40033C235D}"/>
+    <hyperlink ref="N16" r:id="rId21" xr:uid="{8CF028CD-AF38-4E65-854D-B5B37073088D}"/>
+    <hyperlink ref="N17" r:id="rId22" xr:uid="{4F52B149-5F7F-48FF-870C-666544FEC72E}"/>
+    <hyperlink ref="N18" r:id="rId23" xr:uid="{E2D69A3D-693D-46F9-B614-9EC3B752F555}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId24"/>
@@ -2232,6 +2705,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa11e47a-5534-413f-a682-18c576bf3fe0">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="23cabdc3-2994-4dff-9d54-5aea08103ed4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100CD9D82CDEA5B094AA7711ADD607C5383" ma:contentTypeVersion="18" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="0662e544f583006fbe8683355c18d81d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fa11e47a-5534-413f-a682-18c576bf3fe0" xmlns:ns3="23cabdc3-2994-4dff-9d54-5aea08103ed4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e575ef83adf08a0c3d9b19dc80307060" ns2:_="" ns3:_="">
     <xsd:import namespace="fa11e47a-5534-413f-a682-18c576bf3fe0"/>
@@ -2486,28 +2979,8 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fa11e47a-5534-413f-a682-18c576bf3fe0">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="23cabdc3-2994-4dff-9d54-5aea08103ed4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA4E1C23-D813-430E-9851-FDD73486AA32}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C8805-8C0B-415B-AFF2-CD1F38F20F5D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2515,5 +2988,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{533C8805-8C0B-415B-AFF2-CD1F38F20F5D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1417EAA5-8CEB-4EF5-A882-B93510FEE54E}"/>
 </file>